--- a/Statistics Use Cases/Products_UC01.xlsx
+++ b/Statistics Use Cases/Products_UC01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SarathBabuMallam\Desktop\Data science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0005489E-F3C7-4F4D-8A51-67E7BF46132C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1BB7EF-5204-45FF-9A2E-A6B8903C7D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A8C84022-3300-4855-9D7E-373855BD9DC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C84022-3300-4855-9D7E-373855BD9DC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="53">
   <si>
     <t>No.</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Numbers</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Covariace</t>
   </si>
 </sst>
 </file>
@@ -801,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDB1941-7FE4-4595-87F5-70CD2CA4FE98}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,6 +818,8 @@
     <col min="15" max="15" width="19.28515625" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="63" x14ac:dyDescent="0.25">
@@ -981,7 +989,7 @@
         <v>9</v>
       </c>
       <c r="S3" s="17">
-        <v>2.678224480797136E-2</v>
+        <v>2.6782244807971398E-2</v>
       </c>
       <c r="T3" s="17">
         <v>1</v>
@@ -2637,7 +2645,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>151</v>
       </c>
@@ -2706,6 +2714,15 @@
       <c r="J36" s="3">
         <v>21.95</v>
       </c>
+      <c r="M36" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="V36" s="2">
         <v>41</v>
       </c>
@@ -2713,7 +2730,7 @@
         <v>21.95</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>165</v>
       </c>
@@ -2744,6 +2761,15 @@
       <c r="J37" s="3">
         <v>65.849999999999994</v>
       </c>
+      <c r="M37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="19">
+        <v>1</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0.97658486191326233</v>
+      </c>
       <c r="V37" s="2">
         <v>24</v>
       </c>
@@ -2751,7 +2777,7 @@
         <v>65.849999999999994</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>169</v>
       </c>
@@ -2781,6 +2807,15 @@
       </c>
       <c r="J38" s="3">
         <v>109.75</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0.97658486191326233</v>
+      </c>
+      <c r="O38" s="17">
+        <v>1</v>
       </c>
       <c r="V38" s="2">
         <v>23</v>
@@ -2903,7 +2938,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>194</v>
       </c>
@@ -2972,6 +3007,15 @@
       <c r="J43" s="3">
         <v>153.65</v>
       </c>
+      <c r="M43" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>9</v>
+      </c>
       <c r="V43" s="2">
         <v>33</v>
       </c>
@@ -3010,6 +3054,14 @@
       <c r="J44" s="3">
         <v>131.69999999999999</v>
       </c>
+      <c r="M44" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="19">
+        <f>VARP(Sheet1!$I$2:$I$201)</f>
+        <v>5.1049749999999996</v>
+      </c>
+      <c r="O44" s="19"/>
       <c r="V44" s="2">
         <v>26</v>
       </c>
@@ -3017,7 +3069,7 @@
         <v>131.69999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -3047,6 +3099,16 @@
       </c>
       <c r="J45" s="3">
         <v>124.75</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45" s="17">
+        <v>122.16585124999996</v>
+      </c>
+      <c r="O45" s="17">
+        <f>VARP(Sheet1!$J$2:$J$201)</f>
+        <v>3065.3922524374912</v>
       </c>
       <c r="V45" s="2">
         <v>25</v>
@@ -15595,7 +15657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A6B8FF-F07E-4DA5-9283-1B3AD51E9A52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
